--- a/src/20172018华中师大教技群.xlsx
+++ b/src/20172018华中师大教技群.xlsx
@@ -7,14 +7,87 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="成员活跃" sheetId="1" r:id="rId1"/>
+    <sheet name="时间段活跃" sheetId="1" r:id="rId1"/>
+    <sheet name="成员活跃" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>00点</t>
+  </si>
+  <si>
+    <t>01点</t>
+  </si>
+  <si>
+    <t>02点</t>
+  </si>
+  <si>
+    <t>03点</t>
+  </si>
+  <si>
+    <t>04点</t>
+  </si>
+  <si>
+    <t>05点</t>
+  </si>
+  <si>
+    <t>06点</t>
+  </si>
+  <si>
+    <t>07点</t>
+  </si>
+  <si>
+    <t>08点</t>
+  </si>
+  <si>
+    <t>09点</t>
+  </si>
+  <si>
+    <t>10点</t>
+  </si>
+  <si>
+    <t>11点</t>
+  </si>
+  <si>
+    <t>12点</t>
+  </si>
+  <si>
+    <t>13点</t>
+  </si>
+  <si>
+    <t>14点</t>
+  </si>
+  <si>
+    <t>15点</t>
+  </si>
+  <si>
+    <t>16点</t>
+  </si>
+  <si>
+    <t>17点</t>
+  </si>
+  <si>
+    <t>18点</t>
+  </si>
+  <si>
+    <t>19点</t>
+  </si>
+  <si>
+    <t>20点</t>
+  </si>
+  <si>
+    <t>21点</t>
+  </si>
+  <si>
+    <t>22点</t>
+  </si>
+  <si>
+    <t>23点</t>
+  </si>
   <si>
     <t>邬思娜(844764041)</t>
   </si>
@@ -91,21 +164,21 @@
     <t>han(1184762792)</t>
   </si>
   <si>
+    <t>环大帝(1776802386)</t>
+  </si>
+  <si>
     <t>づ思念、漫过我的城(1129782826)</t>
   </si>
   <si>
-    <t>环大帝(1776802386)</t>
-  </si>
-  <si>
     <t>Z(523209129)</t>
   </si>
   <si>
+    <t>kaoklai(2110401398)</t>
+  </si>
+  <si>
     <t>指尖划过(1506645431)</t>
   </si>
   <si>
-    <t>kaoklai(2110401398)</t>
-  </si>
-  <si>
     <t>馨_梦_缘(2380632272)</t>
   </si>
   <si>
@@ -127,451 +200,451 @@
     <t>橘子黄时(1622394719)</t>
   </si>
   <si>
+    <t>猫猫如意(1054129339)</t>
+  </si>
+  <si>
+    <t>青稞(1837693345)</t>
+  </si>
+  <si>
     <t>水瑈(1210545829)</t>
   </si>
   <si>
-    <t>青稞(1837693345)</t>
-  </si>
-  <si>
-    <t>猫猫如意(1054129339)</t>
+    <t>lemon酸(1187264181)</t>
+  </si>
+  <si>
+    <t>意乐(2928161289)</t>
+  </si>
+  <si>
+    <t>漂洋过海来看你(844764041)</t>
   </si>
   <si>
     <t>一只能唱会跳的DC🐮(892852910)</t>
   </si>
   <si>
-    <t>意乐(2928161289)</t>
-  </si>
-  <si>
-    <t>漂洋过海来看你(844764041)</t>
+    <t>––––(1041621651)</t>
+  </si>
+  <si>
+    <t>💤(297863069)</t>
+  </si>
+  <si>
+    <t>麒(172404460)</t>
   </si>
   <si>
     <t>柚子(78006689)</t>
   </si>
   <si>
-    <t>麒(172404460)</t>
-  </si>
-  <si>
-    <t>lemon酸(1187264181)</t>
-  </si>
-  <si>
-    <t>––––(1041621651)</t>
-  </si>
-  <si>
-    <t>💤(297863069)</t>
+    <t>1174965189(1174965189)</t>
+  </si>
+  <si>
+    <t>93号(1733004832)</t>
+  </si>
+  <si>
+    <t>梨✌予君旁(1054474730)</t>
+  </si>
+  <si>
+    <t>清玲之恋(1101314653)</t>
+  </si>
+  <si>
+    <t>怦然心动(793484958)</t>
+  </si>
+  <si>
+    <t>不要说话(1914826709)</t>
   </si>
   <si>
     <t>千寻瀑(957936238)</t>
   </si>
   <si>
-    <t>梨✌予君旁(1054474730)</t>
-  </si>
-  <si>
-    <t>清玲之恋(1101314653)</t>
+    <t>小小小志(419825855)</t>
   </si>
   <si>
     <t>3432725894(3432725894)</t>
   </si>
   <si>
-    <t>不要说话(1914826709)</t>
-  </si>
-  <si>
-    <t>93号(1733004832)</t>
-  </si>
-  <si>
-    <t>1174965189(1174965189)</t>
-  </si>
-  <si>
-    <t>怦然心动(793484958)</t>
-  </si>
-  <si>
-    <t>小小小志(419825855)</t>
-  </si>
-  <si>
     <t>吾心永恒👲(2685718613)</t>
   </si>
   <si>
+    <t>芳土中的金色記憶(1272240185)</t>
+  </si>
+  <si>
+    <t>左然莫奈(1690949570)</t>
+  </si>
+  <si>
     <t>restart(1311449671)</t>
   </si>
   <si>
+    <t>王家七大少(2092253097)</t>
+  </si>
+  <si>
     <t>做个简单的薯片😝(1743147231)</t>
   </si>
   <si>
-    <t>左然莫奈(1690949570)</t>
-  </si>
-  <si>
-    <t>芳土中的金色記憶(1272240185)</t>
-  </si>
-  <si>
     <t>安安(1784054339)</t>
   </si>
   <si>
-    <t>王家七大少(2092253097)</t>
+    <t>1301陈紫欣(2010719010)</t>
+  </si>
+  <si>
+    <t>时光凉人心(2396341551)</t>
+  </si>
+  <si>
+    <t>Unique(386358455)</t>
+  </si>
+  <si>
+    <t>1129782826(1129782826)</t>
+  </si>
+  <si>
+    <t>^Secretofmyboy(1831844901)</t>
+  </si>
+  <si>
+    <t>蕶(957158256)</t>
+  </si>
+  <si>
+    <t>可乐粉里的青花瓷(2714103049)</t>
+  </si>
+  <si>
+    <t>Seal＆Post(1984604486)</t>
   </si>
   <si>
     <t>Daisy(1298147864)</t>
   </si>
   <si>
-    <t>可乐粉里的青花瓷(2714103049)</t>
-  </si>
-  <si>
     <t>🍉(860485645)</t>
   </si>
   <si>
-    <t>1301陈紫欣(2010719010)</t>
-  </si>
-  <si>
-    <t>1129782826(1129782826)</t>
-  </si>
-  <si>
-    <t>蕶(957158256)</t>
-  </si>
-  <si>
-    <t>Unique(386358455)</t>
-  </si>
-  <si>
-    <t>Seal＆Post(1984604486)</t>
-  </si>
-  <si>
-    <t>^Secretofmyboy(1831844901)</t>
-  </si>
-  <si>
-    <t>时光凉人心(2396341551)</t>
+    <t>我当仙女很久了(784364039)</t>
+  </si>
+  <si>
+    <t>大街小巷''(565759084)</t>
   </si>
   <si>
     <t>Hehhjk(1827843091)</t>
   </si>
   <si>
+    <t>花落.自相惜(1037898131)</t>
+  </si>
+  <si>
+    <t>二十来岁的(1032725610)</t>
+  </si>
+  <si>
+    <t>1301-吴海英。(932772445)</t>
+  </si>
+  <si>
+    <t>越幸运(1162902922)</t>
+  </si>
+  <si>
+    <t>流萤(1745996805)</t>
+  </si>
+  <si>
+    <t>Yesterday(847143652)</t>
+  </si>
+  <si>
+    <t>(^V^)(1594288422)</t>
+  </si>
+  <si>
+    <t>๑˙ー˙๑懵石子(1241539404)</t>
+  </si>
+  <si>
     <t>少说话多看书！(951060679)</t>
   </si>
   <si>
-    <t>我当仙女很久了(784364039)</t>
-  </si>
-  <si>
-    <t>1301-吴海英。(932772445)</t>
-  </si>
-  <si>
-    <t>流萤(1745996805)</t>
-  </si>
-  <si>
-    <t>(^V^)(1594288422)</t>
-  </si>
-  <si>
-    <t>二十来岁的(1032725610)</t>
-  </si>
-  <si>
     <t>`M'aster(522156844)</t>
   </si>
   <si>
-    <t>Yesterday(847143652)</t>
-  </si>
-  <si>
-    <t>花落.自相惜(1037898131)</t>
-  </si>
-  <si>
-    <t>大街小巷''(565759084)</t>
-  </si>
-  <si>
-    <t>๑˙ー˙๑懵石子(1241539404)</t>
-  </si>
-  <si>
-    <t>越幸运(1162902922)</t>
+    <t>给咖啡加点盐(1776802386)</t>
+  </si>
+  <si>
+    <t>现代教育技术(1294520877)</t>
+  </si>
+  <si>
+    <t>小角儿(2845312245)</t>
   </si>
   <si>
     <t>1984604486(1984604486)</t>
   </si>
   <si>
-    <t>给咖啡加点盐(1776802386)</t>
+    <t>970139314(970139314)</t>
+  </si>
+  <si>
+    <t>小时候*^_^*(807490863)</t>
+  </si>
+  <si>
+    <t>957158256(957158256)</t>
+  </si>
+  <si>
+    <t>诚信(1239949433)</t>
+  </si>
+  <si>
+    <t>🍭(442511735)</t>
+  </si>
+  <si>
+    <t>Sunday(2661528418)</t>
+  </si>
+  <si>
+    <t>loser(3432725894)</t>
+  </si>
+  <si>
+    <t>旭(819069359)</t>
+  </si>
+  <si>
+    <t>1210545829(1210545829)</t>
   </si>
   <si>
     <t>brilliant(852415491)</t>
   </si>
   <si>
-    <t>小时候*^_^*(807490863)</t>
-  </si>
-  <si>
-    <t>loser(3432725894)</t>
-  </si>
-  <si>
-    <t>现代教育技术(1294520877)</t>
-  </si>
-  <si>
-    <t>Sunday(2661528418)</t>
-  </si>
-  <si>
-    <t>970139314(970139314)</t>
-  </si>
-  <si>
-    <t>957158256(957158256)</t>
-  </si>
-  <si>
-    <t>小角儿(2845312245)</t>
+    <t>凌云志(1741607086)</t>
   </si>
   <si>
     <t>ctrl+s(654705193)</t>
   </si>
   <si>
-    <t>凌云志(1741607086)</t>
-  </si>
-  <si>
-    <t>1210545829(1210545829)</t>
-  </si>
-  <si>
-    <t>旭(819069359)</t>
-  </si>
-  <si>
-    <t>🍭(442511735)</t>
-  </si>
-  <si>
-    <t>诚信(1239949433)</t>
+    <t>幸福很简单😄(1277940729)</t>
+  </si>
+  <si>
+    <t>只是#为了你(1416798557)</t>
+  </si>
+  <si>
+    <t>一匹马赛克♚(454096356)</t>
+  </si>
+  <si>
+    <t>。。(1006899020)</t>
+  </si>
+  <si>
+    <t>1915238009(1915238009)</t>
+  </si>
+  <si>
+    <t>*LoVe*(1094534358)</t>
+  </si>
+  <si>
+    <t>张弓搭箭(284688288)</t>
   </si>
   <si>
     <t>青色花(1034336554)</t>
   </si>
   <si>
+    <t>2896078156(2896078156)</t>
+  </si>
+  <si>
+    <t>针(1745996805)</t>
+  </si>
+  <si>
+    <t>空空狐(1241663874)</t>
+  </si>
+  <si>
+    <t>L_兔小灰(1772667705)</t>
+  </si>
+  <si>
+    <t>爱の味（思念）(961335326)</t>
+  </si>
+  <si>
+    <t>DD(810712967)</t>
+  </si>
+  <si>
+    <t>紫云雪凝(2296304042)</t>
+  </si>
+  <si>
+    <t>花(1784886866)</t>
+  </si>
+  <si>
+    <t>🌺PYQYTT🌺(1838580985)</t>
+  </si>
+  <si>
+    <t>。(1344263164)</t>
+  </si>
+  <si>
+    <t>🐙📄🍎(1542537253)</t>
+  </si>
+  <si>
+    <t>如果你愿意去给河马刷牙。(840590962)</t>
+  </si>
+  <si>
+    <t>Firefly(1115236369)</t>
+  </si>
+  <si>
+    <t>Stonegarlic(1650992907)</t>
+  </si>
+  <si>
+    <t>DISTANCE(2839895870)</t>
+  </si>
+  <si>
+    <t>1784054339(1784054339)</t>
+  </si>
+  <si>
+    <t>18教育技术(1620957933)</t>
+  </si>
+  <si>
+    <t>2928161289(2928161289)</t>
+  </si>
+  <si>
+    <t>silence(1224506701)</t>
+  </si>
+  <si>
+    <t>1511494747(1511494747)</t>
+  </si>
+  <si>
+    <t>晴晨朗暮(1422665168)</t>
+  </si>
+  <si>
     <t>1224506701(1224506701)</t>
   </si>
   <si>
-    <t>DD(810712967)</t>
-  </si>
-  <si>
-    <t>晴晨朗暮(1422665168)</t>
-  </si>
-  <si>
-    <t>silence(1224506701)</t>
-  </si>
-  <si>
-    <t>张弓搭箭(284688288)</t>
-  </si>
-  <si>
-    <t>DISTANCE(2839895870)</t>
-  </si>
-  <si>
-    <t>🌺PYQYTT🌺(1838580985)</t>
-  </si>
-  <si>
-    <t>2896078156(2896078156)</t>
-  </si>
-  <si>
-    <t>。。(1006899020)</t>
-  </si>
-  <si>
-    <t>一匹马赛克♚(454096356)</t>
-  </si>
-  <si>
-    <t>Stonegarlic(1650992907)</t>
-  </si>
-  <si>
-    <t>1915238009(1915238009)</t>
-  </si>
-  <si>
-    <t>空空狐(1241663874)</t>
-  </si>
-  <si>
-    <t>针(1745996805)</t>
-  </si>
-  <si>
-    <t>幸福很简单😄(1277940729)</t>
-  </si>
-  <si>
-    <t>Firefly(1115236369)</t>
-  </si>
-  <si>
-    <t>紫云雪凝(2296304042)</t>
-  </si>
-  <si>
-    <t>18教育技术(1620957933)</t>
-  </si>
-  <si>
-    <t>2928161289(2928161289)</t>
-  </si>
-  <si>
-    <t>L_兔小灰(1772667705)</t>
-  </si>
-  <si>
-    <t>。(1344263164)</t>
-  </si>
-  <si>
-    <t>1511494747(1511494747)</t>
-  </si>
-  <si>
-    <t>只是#为了你(1416798557)</t>
-  </si>
-  <si>
-    <t>花(1784886866)</t>
-  </si>
-  <si>
-    <t>1784054339(1784054339)</t>
-  </si>
-  <si>
-    <t>如果你愿意去给河马刷牙。(840590962)</t>
-  </si>
-  <si>
-    <t>爱の味（思念）(961335326)</t>
-  </si>
-  <si>
-    <t>*LoVe*(1094534358)</t>
-  </si>
-  <si>
     <t>Seven(1299737803)</t>
   </si>
   <si>
-    <t>🐙📄🍎(1542537253)</t>
+    <t>-forever(1305120310)</t>
+  </si>
+  <si>
+    <t>COMPASSES(1921354189)</t>
+  </si>
+  <si>
+    <t>Sun(591983163)</t>
+  </si>
+  <si>
+    <t>2572955597(2572955597)</t>
+  </si>
+  <si>
+    <t>+(411453535)</t>
+  </si>
+  <si>
+    <t>同一个梦想(1040500460)</t>
+  </si>
+  <si>
+    <t>小牙套龙猫i(1277808615)</t>
+  </si>
+  <si>
+    <t>2633180732(2633180732)</t>
+  </si>
+  <si>
+    <t>等一朵花开(3176309978)</t>
+  </si>
+  <si>
+    <t>つ情如初见╮(571718178)</t>
+  </si>
+  <si>
+    <t>℡在乎不曾在乎的(1506725501)</t>
+  </si>
+  <si>
+    <t>留胡渣的硬汉(860485645)</t>
+  </si>
+  <si>
+    <t>kirito(2350076082)</t>
+  </si>
+  <si>
+    <t>如癡如醉的梦(1587113775)</t>
+  </si>
+  <si>
+    <t>西西舒(809054374)</t>
+  </si>
+  <si>
+    <t>张慧(1451996420)</t>
+  </si>
+  <si>
+    <t>依然(1411508114)</t>
+  </si>
+  <si>
+    <t>😧(297863069)</t>
+  </si>
+  <si>
+    <t>1301班张阳莉(772106763)</t>
+  </si>
+  <si>
+    <t>灿烂千阳(1499851159)</t>
+  </si>
+  <si>
+    <t>想子(1614184081)</t>
+  </si>
+  <si>
+    <t>秋轩(362713501)</t>
+  </si>
+  <si>
+    <t>주류(741903190)</t>
+  </si>
+  <si>
+    <t>1083463827(1083463827)</t>
+  </si>
+  <si>
+    <t>鸡。、(861306182)</t>
+  </si>
+  <si>
+    <t>哎呦威(2249621596)</t>
+  </si>
+  <si>
+    <t>654705193(654705193)</t>
+  </si>
+  <si>
+    <t>叮叮当(1655484635)</t>
+  </si>
+  <si>
+    <t>roach(962746955)</t>
+  </si>
+  <si>
+    <t>系统消息(1000000)</t>
+  </si>
+  <si>
+    <t>蒲公樱.(348016231)</t>
+  </si>
+  <si>
+    <t>袁艺双(2661528418)</t>
+  </si>
+  <si>
+    <t>YJ.C(497596161)</t>
+  </si>
+  <si>
+    <t>_an(694893590)</t>
+  </si>
+  <si>
+    <t>米虫(1373859151)</t>
+  </si>
+  <si>
+    <t>Dandelions(1142159389)</t>
   </si>
   <si>
     <t>411453535(411453535)</t>
   </si>
   <si>
-    <t>如癡如醉的梦(1587113775)</t>
-  </si>
-  <si>
-    <t>roach(962746955)</t>
-  </si>
-  <si>
-    <t>つ情如初见╮(571718178)</t>
-  </si>
-  <si>
-    <t>Sun(591983163)</t>
+    <t>syd@七哥(545520443)</t>
+  </si>
+  <si>
+    <t>风华正茂(2542208637)</t>
+  </si>
+  <si>
+    <t>羊羊羊(504374704)</t>
+  </si>
+  <si>
+    <t>雨天囡囡(270415610)</t>
+  </si>
+  <si>
+    <t>安然anr(2756989348)</t>
+  </si>
+  <si>
+    <t>245695702(245695702)</t>
+  </si>
+  <si>
+    <t>离线中•﹏•(1134566393)</t>
   </si>
   <si>
     <t>签(2078159179)</t>
   </si>
   <si>
-    <t>等一朵花开(3176309978)</t>
-  </si>
-  <si>
-    <t>哎呦威(2249621596)</t>
-  </si>
-  <si>
-    <t>西西舒(809054374)</t>
-  </si>
-  <si>
-    <t>syd@七哥(545520443)</t>
-  </si>
-  <si>
-    <t>😧(297863069)</t>
-  </si>
-  <si>
-    <t>YJ.C(497596161)</t>
-  </si>
-  <si>
-    <t>风华正茂(2542208637)</t>
-  </si>
-  <si>
-    <t>245695702(245695702)</t>
-  </si>
-  <si>
-    <t>-forever(1305120310)</t>
+    <t>≈咕叽咕叽🐳(735179175)</t>
+  </si>
+  <si>
+    <t>飛钬鎏天(1394121224)</t>
+  </si>
+  <si>
+    <t>宁夏(2643159023)</t>
   </si>
   <si>
     <t>韩晶晶(1724226940)</t>
   </si>
   <si>
-    <t>宁夏(2643159023)</t>
-  </si>
-  <si>
-    <t>주류(741903190)</t>
-  </si>
-  <si>
-    <t>_an(694893590)</t>
-  </si>
-  <si>
-    <t>℡在乎不曾在乎的(1506725501)</t>
-  </si>
-  <si>
-    <t>小牙套龙猫i(1277808615)</t>
-  </si>
-  <si>
-    <t>654705193(654705193)</t>
-  </si>
-  <si>
-    <t>米虫(1373859151)</t>
-  </si>
-  <si>
-    <t>1083463827(1083463827)</t>
-  </si>
-  <si>
-    <t>鸡。、(861306182)</t>
+    <t>范特莱特(778746618)</t>
   </si>
   <si>
     <t>17届(1184356775)</t>
   </si>
   <si>
-    <t>COMPASSES(1921354189)</t>
-  </si>
-  <si>
-    <t>离线中•﹏•(1134566393)</t>
-  </si>
-  <si>
-    <t>+(411453535)</t>
-  </si>
-  <si>
-    <t>1301班张阳莉(772106763)</t>
-  </si>
-  <si>
-    <t>范特莱特(778746618)</t>
-  </si>
-  <si>
-    <t>≈咕叽咕叽🐳(735179175)</t>
-  </si>
-  <si>
-    <t>秋轩(362713501)</t>
-  </si>
-  <si>
-    <t>安然anr(2756989348)</t>
-  </si>
-  <si>
     <t>筱`然儿(649617133)</t>
-  </si>
-  <si>
-    <t>2633180732(2633180732)</t>
-  </si>
-  <si>
-    <t>张慧(1451996420)</t>
-  </si>
-  <si>
-    <t>袁艺双(2661528418)</t>
-  </si>
-  <si>
-    <t>羊羊羊(504374704)</t>
-  </si>
-  <si>
-    <t>叮叮当(1655484635)</t>
-  </si>
-  <si>
-    <t>想子(1614184081)</t>
-  </si>
-  <si>
-    <t>雨天囡囡(270415610)</t>
-  </si>
-  <si>
-    <t>同一个梦想(1040500460)</t>
-  </si>
-  <si>
-    <t>依然(1411508114)</t>
-  </si>
-  <si>
-    <t>Dandelions(1142159389)</t>
-  </si>
-  <si>
-    <t>2572955597(2572955597)</t>
-  </si>
-  <si>
-    <t>系统消息(1000000)</t>
-  </si>
-  <si>
-    <t>灿烂千阳(1499851159)</t>
-  </si>
-  <si>
-    <t>留胡渣的硬汉(860485645)</t>
-  </si>
-  <si>
-    <t>kirito(2350076082)</t>
-  </si>
-  <si>
-    <t>蒲公樱.(348016231)</t>
-  </si>
-  <si>
-    <t>飛钬鎏天(1394121224)</t>
   </si>
 </sst>
 </file>
@@ -903,9 +976,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B187"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B186"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -913,129 +1195,137 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>240</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>31</v>
@@ -1043,23 +1333,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -1067,15 +1357,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -1083,39 +1373,39 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1123,15 +1413,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -1139,7 +1429,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -1147,31 +1437,31 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1179,7 +1469,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1187,7 +1477,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1195,15 +1485,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1211,7 +1501,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1219,7 +1509,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1227,15 +1517,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -1243,7 +1533,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -1251,7 +1541,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -1259,7 +1549,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1267,7 +1557,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1275,7 +1565,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1283,7 +1573,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1291,15 +1581,15 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -1307,7 +1597,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -1315,7 +1605,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -1323,7 +1613,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -1331,7 +1621,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -1339,7 +1629,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1347,7 +1637,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1355,7 +1645,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -1363,15 +1653,15 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1379,7 +1669,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1387,7 +1677,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1395,7 +1685,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1403,7 +1693,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1411,7 +1701,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -1419,15 +1709,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1435,7 +1725,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1443,7 +1733,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1451,7 +1741,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1459,7 +1749,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -1467,7 +1757,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1475,7 +1765,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1483,7 +1773,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -1491,7 +1781,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -1499,15 +1789,15 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -1515,7 +1805,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1523,7 +1813,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -1531,7 +1821,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -1539,7 +1829,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -1547,7 +1837,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -1555,7 +1845,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -1563,7 +1853,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -1571,7 +1861,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -1579,7 +1869,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -1587,7 +1877,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -1595,7 +1885,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -1603,15 +1893,15 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1619,7 +1909,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -1627,7 +1917,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1635,7 +1925,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -1643,7 +1933,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -1651,7 +1941,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -1659,7 +1949,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -1667,7 +1957,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -1675,7 +1965,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -1683,7 +1973,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1691,7 +1981,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -1699,7 +1989,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1707,7 +1997,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -1715,7 +2005,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -1723,7 +2013,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -1731,15 +2021,15 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -1747,7 +2037,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -1755,7 +2045,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -1763,7 +2053,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1771,7 +2061,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -1779,7 +2069,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -1787,7 +2077,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -1795,7 +2085,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -1803,7 +2093,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -1811,7 +2101,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -1819,7 +2109,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -1827,7 +2117,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -1835,7 +2125,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -1843,7 +2133,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -1851,7 +2141,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -1859,7 +2149,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -1867,7 +2157,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -1875,7 +2165,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -1883,7 +2173,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -1891,7 +2181,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -1899,7 +2189,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -1907,7 +2197,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -1915,7 +2205,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -1923,7 +2213,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -1931,7 +2221,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -1939,7 +2229,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -1947,7 +2237,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1955,7 +2245,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -1963,7 +2253,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -1971,7 +2261,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -1979,15 +2269,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1995,7 +2285,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2003,7 +2293,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2011,7 +2301,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2019,7 +2309,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2027,7 +2317,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2035,7 +2325,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2043,7 +2333,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2051,7 +2341,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2059,7 +2349,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2067,7 +2357,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2075,7 +2365,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2083,7 +2373,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2091,7 +2381,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2099,7 +2389,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2107,7 +2397,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2115,7 +2405,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2123,7 +2413,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -2131,7 +2421,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2139,7 +2429,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2147,7 +2437,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2155,7 +2445,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2163,7 +2453,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2171,7 +2461,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2179,7 +2469,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2187,7 +2477,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2195,7 +2485,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2203,7 +2493,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2211,7 +2501,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2219,7 +2509,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2227,7 +2517,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2235,7 +2525,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2243,7 +2533,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2251,7 +2541,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2259,7 +2549,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2267,7 +2557,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2275,7 +2565,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2283,7 +2573,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -2291,7 +2581,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2299,7 +2589,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -2307,7 +2597,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2315,7 +2605,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2323,7 +2613,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2331,7 +2621,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -2339,7 +2629,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2347,7 +2637,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -2355,7 +2645,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -2363,7 +2653,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -2371,7 +2661,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -2379,7 +2669,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -2387,17 +2677,9 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187">
         <v>1</v>
       </c>
     </row>

--- a/src/20172018华中师大教技群.xlsx
+++ b/src/20172018华中师大教技群.xlsx
@@ -9,13 +9,20 @@
   <sheets>
     <sheet name="时间段活跃" sheetId="1" r:id="rId1"/>
     <sheet name="成员活跃" sheetId="2" r:id="rId2"/>
+    <sheet name="热词统计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>活跃量</t>
+  </si>
   <si>
     <t>00点</t>
   </si>
@@ -89,6 +96,9 @@
     <t>23点</t>
   </si>
   <si>
+    <t>成员</t>
+  </si>
+  <si>
     <t>邬思娜(844764041)</t>
   </si>
   <si>
@@ -134,12 +144,12 @@
     <t>^-^橘子(2842354753)</t>
   </si>
   <si>
+    <t>墨墨(554068550)</t>
+  </si>
+  <si>
     <t>13教技张月(1032340257)</t>
   </si>
   <si>
-    <t>墨墨(554068550)</t>
-  </si>
-  <si>
     <t>灯半昏时(1032340257)</t>
   </si>
   <si>
@@ -149,12 +159,12 @@
     <t>我和小麦本家(1174965189)</t>
   </si>
   <si>
+    <t>仙人掌(2023234587)</t>
+  </si>
+  <si>
     <t>南山南(1783586417)</t>
   </si>
   <si>
-    <t>仙人掌(2023234587)</t>
-  </si>
-  <si>
     <t>右手年华(1169389895)</t>
   </si>
   <si>
@@ -164,487 +174,610 @@
     <t>han(1184762792)</t>
   </si>
   <si>
+    <t>づ思念、漫过我的城(1129782826)</t>
+  </si>
+  <si>
     <t>环大帝(1776802386)</t>
   </si>
   <si>
-    <t>づ思念、漫过我的城(1129782826)</t>
-  </si>
-  <si>
     <t>Z(523209129)</t>
   </si>
   <si>
+    <t>指尖划过(1506645431)</t>
+  </si>
+  <si>
     <t>kaoklai(2110401398)</t>
   </si>
   <si>
-    <t>指尖划过(1506645431)</t>
-  </si>
-  <si>
     <t>馨_梦_缘(2380632272)</t>
   </si>
   <si>
     <t>844764041(844764041)</t>
   </si>
   <si>
+    <t>、(291508839)</t>
+  </si>
+  <si>
     <t>Daisy**(1351462450)</t>
   </si>
   <si>
-    <t>、(291508839)</t>
+    <t>Flavor﹌○﹌(937265124)</t>
   </si>
   <si>
     <t>寂静欢喜(1047793182)</t>
   </si>
   <si>
-    <t>Flavor﹌○﹌(937265124)</t>
+    <t>猫猫如意(1054129339)</t>
+  </si>
+  <si>
+    <t>青稞(1837693345)</t>
+  </si>
+  <si>
+    <t>水瑈(1210545829)</t>
   </si>
   <si>
     <t>橘子黄时(1622394719)</t>
   </si>
   <si>
-    <t>猫猫如意(1054129339)</t>
-  </si>
-  <si>
-    <t>青稞(1837693345)</t>
-  </si>
-  <si>
-    <t>水瑈(1210545829)</t>
+    <t>柚子(78006689)</t>
+  </si>
+  <si>
+    <t>––––(1041621651)</t>
+  </si>
+  <si>
+    <t>意乐(2928161289)</t>
+  </si>
+  <si>
+    <t>一只能唱会跳的DC🐮(892852910)</t>
+  </si>
+  <si>
+    <t>💤(297863069)</t>
+  </si>
+  <si>
+    <t>漂洋过海来看你(844764041)</t>
   </si>
   <si>
     <t>lemon酸(1187264181)</t>
   </si>
   <si>
-    <t>意乐(2928161289)</t>
-  </si>
-  <si>
-    <t>漂洋过海来看你(844764041)</t>
-  </si>
-  <si>
-    <t>一只能唱会跳的DC🐮(892852910)</t>
-  </si>
-  <si>
-    <t>––––(1041621651)</t>
-  </si>
-  <si>
-    <t>💤(297863069)</t>
-  </si>
-  <si>
     <t>麒(172404460)</t>
   </si>
   <si>
-    <t>柚子(78006689)</t>
+    <t>小小小志(419825855)</t>
+  </si>
+  <si>
+    <t>不要说话(1914826709)</t>
+  </si>
+  <si>
+    <t>梨✌予君旁(1054474730)</t>
+  </si>
+  <si>
+    <t>怦然心动(793484958)</t>
+  </si>
+  <si>
+    <t>千寻瀑(957936238)</t>
+  </si>
+  <si>
+    <t>3432725894(3432725894)</t>
   </si>
   <si>
     <t>1174965189(1174965189)</t>
   </si>
   <si>
+    <t>清玲之恋(1101314653)</t>
+  </si>
+  <si>
     <t>93号(1733004832)</t>
   </si>
   <si>
-    <t>梨✌予君旁(1054474730)</t>
-  </si>
-  <si>
-    <t>清玲之恋(1101314653)</t>
-  </si>
-  <si>
-    <t>怦然心动(793484958)</t>
-  </si>
-  <si>
-    <t>不要说话(1914826709)</t>
-  </si>
-  <si>
-    <t>千寻瀑(957936238)</t>
-  </si>
-  <si>
-    <t>小小小志(419825855)</t>
-  </si>
-  <si>
-    <t>3432725894(3432725894)</t>
+    <t>左然莫奈(1690949570)</t>
+  </si>
+  <si>
+    <t>王家七大少(2092253097)</t>
+  </si>
+  <si>
+    <t>芳土中的金色記憶(1272240185)</t>
+  </si>
+  <si>
+    <t>做个简单的薯片😝(1743147231)</t>
+  </si>
+  <si>
+    <t>安安(1784054339)</t>
+  </si>
+  <si>
+    <t>restart(1311449671)</t>
   </si>
   <si>
     <t>吾心永恒👲(2685718613)</t>
   </si>
   <si>
-    <t>芳土中的金色記憶(1272240185)</t>
-  </si>
-  <si>
-    <t>左然莫奈(1690949570)</t>
-  </si>
-  <si>
-    <t>restart(1311449671)</t>
-  </si>
-  <si>
-    <t>王家七大少(2092253097)</t>
-  </si>
-  <si>
-    <t>做个简单的薯片😝(1743147231)</t>
-  </si>
-  <si>
-    <t>安安(1784054339)</t>
+    <t>Seal＆Post(1984604486)</t>
+  </si>
+  <si>
+    <t>1129782826(1129782826)</t>
+  </si>
+  <si>
+    <t>可乐粉里的青花瓷(2714103049)</t>
+  </si>
+  <si>
+    <t>Daisy(1298147864)</t>
+  </si>
+  <si>
+    <t>蕶(957158256)</t>
   </si>
   <si>
     <t>1301陈紫欣(2010719010)</t>
   </si>
   <si>
+    <t>🍉(860485645)</t>
+  </si>
+  <si>
     <t>时光凉人心(2396341551)</t>
   </si>
   <si>
     <t>Unique(386358455)</t>
   </si>
   <si>
-    <t>1129782826(1129782826)</t>
-  </si>
-  <si>
     <t>^Secretofmyboy(1831844901)</t>
   </si>
   <si>
-    <t>蕶(957158256)</t>
-  </si>
-  <si>
-    <t>可乐粉里的青花瓷(2714103049)</t>
-  </si>
-  <si>
-    <t>Seal＆Post(1984604486)</t>
-  </si>
-  <si>
-    <t>Daisy(1298147864)</t>
-  </si>
-  <si>
-    <t>🍉(860485645)</t>
+    <t>流萤(1745996805)</t>
+  </si>
+  <si>
+    <t>大街小巷''(565759084)</t>
+  </si>
+  <si>
+    <t>`M'aster(522156844)</t>
+  </si>
+  <si>
+    <t>少说话多看书！(951060679)</t>
+  </si>
+  <si>
+    <t>๑˙ー˙๑懵石子(1241539404)</t>
+  </si>
+  <si>
+    <t>(^V^)(1594288422)</t>
+  </si>
+  <si>
+    <t>Yesterday(847143652)</t>
+  </si>
+  <si>
+    <t>二十来岁的(1032725610)</t>
   </si>
   <si>
     <t>我当仙女很久了(784364039)</t>
   </si>
   <si>
-    <t>大街小巷''(565759084)</t>
+    <t>花落.自相惜(1037898131)</t>
   </si>
   <si>
     <t>Hehhjk(1827843091)</t>
   </si>
   <si>
-    <t>花落.自相惜(1037898131)</t>
-  </si>
-  <si>
-    <t>二十来岁的(1032725610)</t>
-  </si>
-  <si>
     <t>1301-吴海英。(932772445)</t>
   </si>
   <si>
     <t>越幸运(1162902922)</t>
   </si>
   <si>
-    <t>流萤(1745996805)</t>
-  </si>
-  <si>
-    <t>Yesterday(847143652)</t>
-  </si>
-  <si>
-    <t>(^V^)(1594288422)</t>
-  </si>
-  <si>
-    <t>๑˙ー˙๑懵石子(1241539404)</t>
-  </si>
-  <si>
-    <t>少说话多看书！(951060679)</t>
-  </si>
-  <si>
-    <t>`M'aster(522156844)</t>
+    <t>970139314(970139314)</t>
   </si>
   <si>
     <t>给咖啡加点盐(1776802386)</t>
   </si>
   <si>
+    <t>1984604486(1984604486)</t>
+  </si>
+  <si>
     <t>现代教育技术(1294520877)</t>
   </si>
   <si>
+    <t>诚信(1239949433)</t>
+  </si>
+  <si>
+    <t>小时候*^_^*(807490863)</t>
+  </si>
+  <si>
+    <t>brilliant(852415491)</t>
+  </si>
+  <si>
+    <t>凌云志(1741607086)</t>
+  </si>
+  <si>
+    <t>1210545829(1210545829)</t>
+  </si>
+  <si>
+    <t>957158256(957158256)</t>
+  </si>
+  <si>
+    <t>🍭(442511735)</t>
+  </si>
+  <si>
     <t>小角儿(2845312245)</t>
   </si>
   <si>
-    <t>1984604486(1984604486)</t>
-  </si>
-  <si>
-    <t>970139314(970139314)</t>
-  </si>
-  <si>
-    <t>小时候*^_^*(807490863)</t>
-  </si>
-  <si>
-    <t>957158256(957158256)</t>
-  </si>
-  <si>
-    <t>诚信(1239949433)</t>
-  </si>
-  <si>
-    <t>🍭(442511735)</t>
-  </si>
-  <si>
     <t>Sunday(2661528418)</t>
   </si>
   <si>
     <t>loser(3432725894)</t>
   </si>
   <si>
+    <t>ctrl+s(654705193)</t>
+  </si>
+  <si>
     <t>旭(819069359)</t>
   </si>
   <si>
-    <t>1210545829(1210545829)</t>
-  </si>
-  <si>
-    <t>brilliant(852415491)</t>
-  </si>
-  <si>
-    <t>凌云志(1741607086)</t>
-  </si>
-  <si>
-    <t>ctrl+s(654705193)</t>
+    <t>Firefly(1115236369)</t>
+  </si>
+  <si>
+    <t>只是#为了你(1416798557)</t>
+  </si>
+  <si>
+    <t>Stonegarlic(1650992907)</t>
+  </si>
+  <si>
+    <t>L_兔小灰(1772667705)</t>
+  </si>
+  <si>
+    <t>2896078156(2896078156)</t>
+  </si>
+  <si>
+    <t>Seven(1299737803)</t>
+  </si>
+  <si>
+    <t>。(1344263164)</t>
+  </si>
+  <si>
+    <t>2928161289(2928161289)</t>
+  </si>
+  <si>
+    <t>*LoVe*(1094534358)</t>
+  </si>
+  <si>
+    <t>🌺PYQYTT🌺(1838580985)</t>
+  </si>
+  <si>
+    <t>1224506701(1224506701)</t>
+  </si>
+  <si>
+    <t>🐙📄🍎(1542537253)</t>
+  </si>
+  <si>
+    <t>如果你愿意去给河马刷牙。(840590962)</t>
+  </si>
+  <si>
+    <t>空空狐(1241663874)</t>
+  </si>
+  <si>
+    <t>一匹马赛克♚(454096356)</t>
+  </si>
+  <si>
+    <t>1511494747(1511494747)</t>
   </si>
   <si>
     <t>幸福很简单😄(1277940729)</t>
   </si>
   <si>
-    <t>只是#为了你(1416798557)</t>
-  </si>
-  <si>
-    <t>一匹马赛克♚(454096356)</t>
+    <t>青色花(1034336554)</t>
+  </si>
+  <si>
+    <t>DD(810712967)</t>
+  </si>
+  <si>
+    <t>紫云雪凝(2296304042)</t>
+  </si>
+  <si>
+    <t>针(1745996805)</t>
   </si>
   <si>
     <t>。。(1006899020)</t>
   </si>
   <si>
+    <t>花(1784886866)</t>
+  </si>
+  <si>
+    <t>晴晨朗暮(1422665168)</t>
+  </si>
+  <si>
+    <t>18教育技术(1620957933)</t>
+  </si>
+  <si>
+    <t>silence(1224506701)</t>
+  </si>
+  <si>
+    <t>张弓搭箭(284688288)</t>
+  </si>
+  <si>
+    <t>爱の味（思念）(961335326)</t>
+  </si>
+  <si>
+    <t>1784054339(1784054339)</t>
+  </si>
+  <si>
     <t>1915238009(1915238009)</t>
   </si>
   <si>
-    <t>*LoVe*(1094534358)</t>
-  </si>
-  <si>
-    <t>张弓搭箭(284688288)</t>
-  </si>
-  <si>
-    <t>青色花(1034336554)</t>
-  </si>
-  <si>
-    <t>2896078156(2896078156)</t>
-  </si>
-  <si>
-    <t>针(1745996805)</t>
-  </si>
-  <si>
-    <t>空空狐(1241663874)</t>
-  </si>
-  <si>
-    <t>L_兔小灰(1772667705)</t>
-  </si>
-  <si>
-    <t>爱の味（思念）(961335326)</t>
-  </si>
-  <si>
-    <t>DD(810712967)</t>
-  </si>
-  <si>
-    <t>紫云雪凝(2296304042)</t>
-  </si>
-  <si>
-    <t>花(1784886866)</t>
-  </si>
-  <si>
-    <t>🌺PYQYTT🌺(1838580985)</t>
-  </si>
-  <si>
-    <t>。(1344263164)</t>
-  </si>
-  <si>
-    <t>🐙📄🍎(1542537253)</t>
-  </si>
-  <si>
-    <t>如果你愿意去给河马刷牙。(840590962)</t>
-  </si>
-  <si>
-    <t>Firefly(1115236369)</t>
-  </si>
-  <si>
-    <t>Stonegarlic(1650992907)</t>
-  </si>
-  <si>
     <t>DISTANCE(2839895870)</t>
   </si>
   <si>
-    <t>1784054339(1784054339)</t>
-  </si>
-  <si>
-    <t>18教育技术(1620957933)</t>
-  </si>
-  <si>
-    <t>2928161289(2928161289)</t>
-  </si>
-  <si>
-    <t>silence(1224506701)</t>
-  </si>
-  <si>
-    <t>1511494747(1511494747)</t>
-  </si>
-  <si>
-    <t>晴晨朗暮(1422665168)</t>
-  </si>
-  <si>
-    <t>1224506701(1224506701)</t>
-  </si>
-  <si>
-    <t>Seven(1299737803)</t>
+    <t>离线中•﹏•(1134566393)</t>
+  </si>
+  <si>
+    <t>2633180732(2633180732)</t>
+  </si>
+  <si>
+    <t>小牙套龙猫i(1277808615)</t>
+  </si>
+  <si>
+    <t>系统消息(1000000)</t>
+  </si>
+  <si>
+    <t>签(2078159179)</t>
+  </si>
+  <si>
+    <t>411453535(411453535)</t>
+  </si>
+  <si>
+    <t>YJ.C(497596161)</t>
+  </si>
+  <si>
+    <t>654705193(654705193)</t>
+  </si>
+  <si>
+    <t>袁艺双(2661528418)</t>
+  </si>
+  <si>
+    <t>同一个梦想(1040500460)</t>
+  </si>
+  <si>
+    <t>1301班张阳莉(772106763)</t>
+  </si>
+  <si>
+    <t>如癡如醉的梦(1587113775)</t>
+  </si>
+  <si>
+    <t>17届(1184356775)</t>
+  </si>
+  <si>
+    <t>1083463827(1083463827)</t>
+  </si>
+  <si>
+    <t>韩晶晶(1724226940)</t>
+  </si>
+  <si>
+    <t>😧(297863069)</t>
+  </si>
+  <si>
+    <t>Sun(591983163)</t>
+  </si>
+  <si>
+    <t>风华正茂(2542208637)</t>
+  </si>
+  <si>
+    <t>西西舒(809054374)</t>
+  </si>
+  <si>
+    <t>张慧(1451996420)</t>
+  </si>
+  <si>
+    <t>kirito(2350076082)</t>
+  </si>
+  <si>
+    <t>羊羊羊(504374704)</t>
+  </si>
+  <si>
+    <t>灿烂千阳(1499851159)</t>
+  </si>
+  <si>
+    <t>주류(741903190)</t>
+  </si>
+  <si>
+    <t>哎呦威(2249621596)</t>
+  </si>
+  <si>
+    <t>安然anr(2756989348)</t>
+  </si>
+  <si>
+    <t>飛钬鎏天(1394121224)</t>
+  </si>
+  <si>
+    <t>蒲公樱.(348016231)</t>
+  </si>
+  <si>
+    <t>つ情如初见╮(571718178)</t>
+  </si>
+  <si>
+    <t>等一朵花开(3176309978)</t>
+  </si>
+  <si>
+    <t>留胡渣的硬汉(860485645)</t>
+  </si>
+  <si>
+    <t>syd@七哥(545520443)</t>
+  </si>
+  <si>
+    <t>Dandelions(1142159389)</t>
+  </si>
+  <si>
+    <t>宁夏(2643159023)</t>
+  </si>
+  <si>
+    <t>依然(1411508114)</t>
+  </si>
+  <si>
+    <t>≈咕叽咕叽🐳(735179175)</t>
+  </si>
+  <si>
+    <t>roach(962746955)</t>
+  </si>
+  <si>
+    <t>范特莱特(778746618)</t>
+  </si>
+  <si>
+    <t>+(411453535)</t>
+  </si>
+  <si>
+    <t>雨天囡囡(270415610)</t>
+  </si>
+  <si>
+    <t>筱`然儿(649617133)</t>
+  </si>
+  <si>
+    <t>245695702(245695702)</t>
+  </si>
+  <si>
+    <t>鸡。、(861306182)</t>
+  </si>
+  <si>
+    <t>米虫(1373859151)</t>
+  </si>
+  <si>
+    <t>_an(694893590)</t>
+  </si>
+  <si>
+    <t>℡在乎不曾在乎的(1506725501)</t>
   </si>
   <si>
     <t>-forever(1305120310)</t>
   </si>
   <si>
+    <t>叮叮当(1655484635)</t>
+  </si>
+  <si>
+    <t>想子(1614184081)</t>
+  </si>
+  <si>
+    <t>2572955597(2572955597)</t>
+  </si>
+  <si>
     <t>COMPASSES(1921354189)</t>
   </si>
   <si>
-    <t>Sun(591983163)</t>
-  </si>
-  <si>
-    <t>2572955597(2572955597)</t>
-  </si>
-  <si>
-    <t>+(411453535)</t>
-  </si>
-  <si>
-    <t>同一个梦想(1040500460)</t>
-  </si>
-  <si>
-    <t>小牙套龙猫i(1277808615)</t>
-  </si>
-  <si>
-    <t>2633180732(2633180732)</t>
-  </si>
-  <si>
-    <t>等一朵花开(3176309978)</t>
-  </si>
-  <si>
-    <t>つ情如初见╮(571718178)</t>
-  </si>
-  <si>
-    <t>℡在乎不曾在乎的(1506725501)</t>
-  </si>
-  <si>
-    <t>留胡渣的硬汉(860485645)</t>
-  </si>
-  <si>
-    <t>kirito(2350076082)</t>
-  </si>
-  <si>
-    <t>如癡如醉的梦(1587113775)</t>
-  </si>
-  <si>
-    <t>西西舒(809054374)</t>
-  </si>
-  <si>
-    <t>张慧(1451996420)</t>
-  </si>
-  <si>
-    <t>依然(1411508114)</t>
-  </si>
-  <si>
-    <t>😧(297863069)</t>
-  </si>
-  <si>
-    <t>1301班张阳莉(772106763)</t>
-  </si>
-  <si>
-    <t>灿烂千阳(1499851159)</t>
-  </si>
-  <si>
-    <t>想子(1614184081)</t>
-  </si>
-  <si>
     <t>秋轩(362713501)</t>
   </si>
   <si>
-    <t>주류(741903190)</t>
-  </si>
-  <si>
-    <t>1083463827(1083463827)</t>
-  </si>
-  <si>
-    <t>鸡。、(861306182)</t>
-  </si>
-  <si>
-    <t>哎呦威(2249621596)</t>
-  </si>
-  <si>
-    <t>654705193(654705193)</t>
-  </si>
-  <si>
-    <t>叮叮当(1655484635)</t>
-  </si>
-  <si>
-    <t>roach(962746955)</t>
-  </si>
-  <si>
-    <t>系统消息(1000000)</t>
-  </si>
-  <si>
-    <t>蒲公樱.(348016231)</t>
-  </si>
-  <si>
-    <t>袁艺双(2661528418)</t>
-  </si>
-  <si>
-    <t>YJ.C(497596161)</t>
-  </si>
-  <si>
-    <t>_an(694893590)</t>
-  </si>
-  <si>
-    <t>米虫(1373859151)</t>
-  </si>
-  <si>
-    <t>Dandelions(1142159389)</t>
-  </si>
-  <si>
-    <t>411453535(411453535)</t>
-  </si>
-  <si>
-    <t>syd@七哥(545520443)</t>
-  </si>
-  <si>
-    <t>风华正茂(2542208637)</t>
-  </si>
-  <si>
-    <t>羊羊羊(504374704)</t>
-  </si>
-  <si>
-    <t>雨天囡囡(270415610)</t>
-  </si>
-  <si>
-    <t>安然anr(2756989348)</t>
-  </si>
-  <si>
-    <t>245695702(245695702)</t>
-  </si>
-  <si>
-    <t>离线中•﹏•(1134566393)</t>
-  </si>
-  <si>
-    <t>签(2078159179)</t>
-  </si>
-  <si>
-    <t>≈咕叽咕叽🐳(735179175)</t>
-  </si>
-  <si>
-    <t>飛钬鎏天(1394121224)</t>
-  </si>
-  <si>
-    <t>宁夏(2643159023)</t>
-  </si>
-  <si>
-    <t>韩晶晶(1724226940)</t>
-  </si>
-  <si>
-    <t>范特莱特(778746618)</t>
-  </si>
-  <si>
-    <t>17届(1184356775)</t>
-  </si>
-  <si>
-    <t>筱`然儿(649617133)</t>
+    <t>词汇</t>
+  </si>
+  <si>
+    <t>出现次数</t>
+  </si>
+  <si>
+    <t>华中</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>华东</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>四本</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>浙大</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>东西</t>
+  </si>
+  <si>
+    <t>济州岛</t>
+  </si>
+  <si>
+    <t>陕</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>哈</t>
+  </si>
+  <si>
+    <t>开朗</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>南湖</t>
+  </si>
+  <si>
+    <t>琉</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>米苏</t>
+  </si>
+  <si>
+    <t>远超过</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>上门</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>伊河</t>
+  </si>
+  <si>
+    <t>华南</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>华山</t>
+  </si>
+  <si>
+    <t>青</t>
   </si>
 </sst>
 </file>
@@ -976,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -990,13 +1123,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1004,7 +1137,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1012,7 +1145,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1020,7 +1153,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1028,7 +1161,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1036,7 +1169,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1044,7 +1177,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1052,129 +1185,137 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>196</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>319</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>221</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>7</v>
       </c>
     </row>
@@ -1185,147 +1326,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1">
-        <v>240</v>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>31</v>
@@ -1333,23 +1474,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -1357,15 +1498,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -1373,39 +1514,39 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1413,15 +1554,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -1429,7 +1570,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -1437,31 +1578,31 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1469,7 +1610,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1477,7 +1618,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1485,15 +1626,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1501,7 +1642,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1509,7 +1650,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1517,15 +1658,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -1533,7 +1674,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -1541,7 +1682,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -1549,7 +1690,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1557,7 +1698,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1565,7 +1706,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1573,7 +1714,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1581,15 +1722,15 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -1597,7 +1738,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -1605,7 +1746,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -1613,7 +1754,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -1621,7 +1762,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -1629,7 +1770,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1637,7 +1778,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1645,7 +1786,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -1653,15 +1794,15 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1669,7 +1810,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1677,7 +1818,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1685,7 +1826,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1693,7 +1834,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1701,7 +1842,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -1709,15 +1850,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1725,7 +1866,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1733,7 +1874,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1741,7 +1882,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1749,7 +1890,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -1757,7 +1898,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1765,7 +1906,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1773,7 +1914,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -1781,7 +1922,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -1789,15 +1930,15 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -1805,7 +1946,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1813,7 +1954,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -1821,7 +1962,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -1829,7 +1970,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -1837,7 +1978,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -1845,7 +1986,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -1853,7 +1994,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -1861,7 +2002,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -1869,7 +2010,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -1877,7 +2018,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -1885,7 +2026,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -1893,15 +2034,15 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1909,7 +2050,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -1917,7 +2058,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1925,7 +2066,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -1933,7 +2074,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -1941,7 +2082,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -1949,7 +2090,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -1957,7 +2098,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -1965,7 +2106,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -1973,7 +2114,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1981,7 +2122,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -1989,7 +2130,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1997,7 +2138,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2005,7 +2146,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2013,7 +2154,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2021,15 +2162,15 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2037,7 +2178,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2045,7 +2186,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2053,7 +2194,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2061,7 +2202,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2069,7 +2210,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2077,7 +2218,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2085,7 +2226,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2093,7 +2234,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2101,7 +2242,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2109,7 +2250,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2117,7 +2258,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2125,7 +2266,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2133,7 +2274,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -2141,7 +2282,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -2149,7 +2290,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2157,7 +2298,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -2165,7 +2306,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2173,7 +2314,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2181,7 +2322,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2189,7 +2330,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -2197,7 +2338,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2205,7 +2346,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2213,7 +2354,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2221,7 +2362,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2229,7 +2370,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2237,7 +2378,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2245,7 +2386,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2253,7 +2394,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -2261,7 +2402,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -2269,15 +2410,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2285,7 +2426,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2293,7 +2434,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2301,7 +2442,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2309,7 +2450,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2317,7 +2458,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2325,7 +2466,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2333,7 +2474,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2341,7 +2482,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2349,7 +2490,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2357,7 +2498,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2365,7 +2506,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2373,7 +2514,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2381,7 +2522,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2389,7 +2530,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2397,7 +2538,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2405,7 +2546,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2413,7 +2554,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -2421,7 +2562,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2429,7 +2570,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2437,7 +2578,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2445,7 +2586,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2453,7 +2594,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2461,7 +2602,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2469,7 +2610,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2477,7 +2618,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2485,7 +2626,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2493,7 +2634,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2501,7 +2642,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2509,7 +2650,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2517,7 +2658,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2525,7 +2666,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2533,7 +2674,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2541,7 +2682,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2549,7 +2690,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2557,7 +2698,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2565,7 +2706,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2573,7 +2714,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -2581,7 +2722,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2589,7 +2730,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -2597,7 +2738,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2605,7 +2746,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2613,7 +2754,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2621,7 +2762,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -2629,7 +2770,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2637,7 +2778,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -2645,7 +2786,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -2653,7 +2794,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -2661,7 +2802,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -2669,7 +2810,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -2677,9 +2818,354 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
     </row>
